--- a/project_data.xlsx
+++ b/project_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ikastekoa\5\NAEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F7A96-C5A8-42A5-A6C8-AFBF363C5311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{768ACDD5-191D-4691-8948-DFD8E526B15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>B,Normal,45,High,Low,23,1,1,3,395.82,116,</t>
   </si>
   <si>
-    <t>A,Double,45,High,Low,15,1,2,1,361,884,9,</t>
-  </si>
-  <si>
     <t>A,Double,45,High,Low,15,1,2,2,509.902,12,</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>B,Normal,45,Low,High,22,4,8,3,350.6337,13,</t>
+  </si>
+  <si>
+    <t>A,Double,45,High,Low,15,1,2,1,361,9,</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,427 +683,427 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G89">
         <v>7.8</v>
@@ -1114,12 +1114,12 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G91">
         <f>SQRT((G89*40)^2+(H89*40)^2)</f>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G92">
         <f>270-1</f>
@@ -1137,27 +1137,27 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">

--- a/project_data.xlsx
+++ b/project_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ikastekoa\5\NAEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{768ACDD5-191D-4691-8948-DFD8E526B15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783093E6-153E-4D4E-B682-14E57ECE3571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>32,4,8,3,B,Double,45,High,High,,,</t>
   </si>
   <si>
-    <t>Plane_Type,Mass_Level,Launch_Angle_deg,Launch_Height,Throw_Speed,Config_ID,Day,Order_in_Day,Replicate,Radial_Distance_m,Trajectory_Angle_deg,Notes</t>
-  </si>
-  <si>
     <t>B,Normal,45,High,Low,23,1,1,1,442,119,</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>A,Double,45,High,Low,15,1,2,1,361,9,</t>
+  </si>
+  <si>
+    <t>Plane_Type,Mass_Level,Launch_Angle_deg,Launch_Height,Throw_Speed,Config_ID,Day,Order_in_Day,Replicate,Radial_Distance_cm,Trajectory_Angle_deg,Notes</t>
   </si>
 </sst>
 </file>
@@ -655,455 +655,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G89">
         <v>7.8</v>
@@ -1114,12 +1112,12 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91">
         <f>SQRT((G89*40)^2+(H89*40)^2)</f>
@@ -1128,7 +1126,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G92">
         <f>270-1</f>
@@ -1137,27 +1135,27 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">

--- a/project_data.xlsx
+++ b/project_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osanz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ikastekoa\5\NAEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33943A68-FAC0-474C-AE3C-0EA46F51ED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC33AFFC-1181-4A01-A5BF-0BC4727E31C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>A,Double,45,High,High,16,3,3,1,728.011,17.0,nan</t>
   </si>
   <si>
-    <t>A,Double,45,High,High,16,3,3,2,436.0,6601.0,2.0</t>
-  </si>
-  <si>
     <t>A,Double,45,High,High,16,3,3,3,868.4515,1.0,nan</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>B,Double,0,Low,High,26,3,4,2,307.8701,20.0,nan</t>
   </si>
   <si>
-    <t>B,Double,0,Low,High,26,3,4,3,203.0,8431.0,10.0</t>
-  </si>
-  <si>
     <t>B,Normal,45,High,High,24,3,3,1,800.7696,17.0,nan</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>A,Double,45,High,Low,15,4,2,3,241.197,3.0,nan</t>
   </si>
   <si>
-    <t>A,Double,45,Low,High,14,4,1,1,429.0,1946.0,1.0</t>
-  </si>
-  <si>
     <t>A,Double,45,Low,High,14,4,1,2,336.6185,5.0,nan</t>
   </si>
   <si>
@@ -311,6 +302,15 @@
   </si>
   <si>
     <t>Plane_Type,Mass_Level,Launch_Angle_deg,Launch_Height,Throw_Speed,Config_ID,Day,Order_in_Day,Replicate,Radial_Distance_cm,Trajectory_Angle_deg,Notes</t>
+  </si>
+  <si>
+    <t>A,Double,45,High,High,16,3,3,2,436.0,2.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,Low,High,26,3,4,3,203,10.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,Low,High,14,4,1,1,429.0,1.0,</t>
   </si>
 </sst>
 </file>
@@ -654,15 +654,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -912,237 +912,237 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
